--- a/data2/port_risk_av_no_short.xlsx
+++ b/data2/port_risk_av_no_short.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.08093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.15998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.04595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.10735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.08058999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.07872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.03293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.00277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.17266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.10069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
